--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt9a-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt9a-Fzd10.xlsx
@@ -534,28 +534,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1496866666666667</v>
+        <v>0.3725013333333333</v>
       </c>
       <c r="H2">
-        <v>0.44906</v>
+        <v>1.117504</v>
       </c>
       <c r="I2">
-        <v>0.03437062495625315</v>
+        <v>0.05990362118104055</v>
       </c>
       <c r="J2">
-        <v>0.03557416678252473</v>
+        <v>0.06743099450495174</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1038565</v>
+        <v>0.016657</v>
       </c>
       <c r="N2">
-        <v>0.207713</v>
+        <v>0.033314</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01554593329666667</v>
+        <v>0.006204754709333333</v>
       </c>
       <c r="R2">
-        <v>0.09327559978000002</v>
+        <v>0.037228528256</v>
       </c>
       <c r="S2">
-        <v>0.03437062495625315</v>
+        <v>0.05990362118104055</v>
       </c>
       <c r="T2">
-        <v>0.03557416678252473</v>
+        <v>0.06743099450495174</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,28 +596,28 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.763367333333333</v>
+        <v>3.763367333333334</v>
       </c>
       <c r="H3">
         <v>11.290102</v>
       </c>
       <c r="I3">
-        <v>0.8641336604459172</v>
+        <v>0.6052040917109096</v>
       </c>
       <c r="J3">
-        <v>0.8943926681060793</v>
+        <v>0.6812528688240443</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.1038565</v>
+        <v>0.016657</v>
       </c>
       <c r="N3">
-        <v>0.207713</v>
+        <v>0.033314</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.3908501594543334</v>
+        <v>0.06268640967133335</v>
       </c>
       <c r="R3">
-        <v>2.345100956726</v>
+        <v>0.3761184580280001</v>
       </c>
       <c r="S3">
-        <v>0.8641336604459172</v>
+        <v>0.6052040917109096</v>
       </c>
       <c r="T3">
-        <v>0.8943926681060793</v>
+        <v>0.6812528688240443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2.0824755</v>
+      </c>
+      <c r="H4">
+        <v>4.164951</v>
+      </c>
+      <c r="I4">
+        <v>0.3348922871080498</v>
+      </c>
+      <c r="J4">
+        <v>0.2513161366710037</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.5</v>
       </c>
-      <c r="G4">
-        <v>0.4420215</v>
-      </c>
-      <c r="H4">
-        <v>0.884043</v>
-      </c>
-      <c r="I4">
-        <v>0.1014957145978296</v>
-      </c>
-      <c r="J4">
-        <v>0.07003316511139604</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.1038565</v>
+        <v>0.016657</v>
       </c>
       <c r="N4">
-        <v>0.207713</v>
+        <v>0.033314</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.04590680591475001</v>
+        <v>0.03468779440350001</v>
       </c>
       <c r="R4">
-        <v>0.183627223659</v>
+        <v>0.138751177614</v>
       </c>
       <c r="S4">
-        <v>0.1014957145978296</v>
+        <v>0.3348922871080498</v>
       </c>
       <c r="T4">
-        <v>0.07003316511139604</v>
+        <v>0.2513161366710037</v>
       </c>
     </row>
   </sheetData>
